--- a/PSP2/psp-forms/Time In Phase.xlsx
+++ b/PSP2/psp-forms/Time In Phase.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="excel (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (10)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__2" localSheetId="0">'excel (2)'!$A$1:$E$25</definedName>
+    <definedName name="excel__10" localSheetId="0">'excel (10)'!$A$1:$E$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="D:\afmap\Descargas\excel (2).iqy" name="excel (2)" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" odcFile="D:\afmap\Descargas\excel (10).iqy" name="excel (10)" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B3%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -83,7 +83,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:15 PM el 4/03/2017</t>
+    <t>Reporte generado a las 09:43 PM el 6/03/2017</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (2)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (10)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
